--- a/ErrorAnalysisResults.xlsx
+++ b/ErrorAnalysisResults.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23910D35-D878-46C1-8109-62FA41FAE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -207,22 +216,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -233,162 +247,184 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -578,36 +614,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.88"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="29.0"/>
-    <col customWidth="1" min="4" max="4" width="24.75"/>
-    <col customWidth="1" min="5" max="5" width="23.13"/>
-    <col customWidth="1" min="6" max="6" width="16.63"/>
-    <col customWidth="1" min="7" max="8" width="24.5"/>
+    <col min="1" max="1" width="38.90625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -627,405 +668,407 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="242" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="118" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6">
-        <v>0.028</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.063</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.028</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.028</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="104.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="105.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="218" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5">
-        <v>1680.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="2">
+        <v>1680</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5">
-        <v>1680.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1680.0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1680.0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1680.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="2">
+        <v>1680</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1680</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1680</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="218.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="10">
         <v>92.9</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>2.27</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>4.83</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="11">
         <v>60.64</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="11">
         <v>12.63</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>26.73</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="11">
         <v>43.23</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <v>16.41</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>40.36</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="10">
         <v>42.38</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <v>15.89</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <v>41.74</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <v>30.01</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>12.85</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="10">
         <v>57.13</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:C3"/>
@@ -1033,9 +1076,7 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ErrorAnalysisResults.xlsx
+++ b/ErrorAnalysisResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23910D35-D878-46C1-8109-62FA41FAE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16187BA-F563-473A-9D66-8B9E1B54C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -393,15 +393,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -624,66 +624,66 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.90625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="8" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -694,53 +694,59 @@
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="242" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="242.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="118" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="117.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="3">
+      <c r="D4" s="14"/>
+      <c r="E4" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>6.3E-2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H4" s="3">
         <v>2.8000000000000001E-2</v>
@@ -748,104 +754,116 @@
       <c r="I4" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="104.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" ht="105.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="218.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="2">
+      <c r="D8" s="14"/>
+      <c r="E8" s="2">
         <v>1680</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1680</v>
       </c>
       <c r="G8" s="2">
         <v>1680</v>
@@ -856,147 +874,152 @@
       <c r="I8" s="2">
         <v>1680</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="218.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="2">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="218.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="10">
+      <c r="C12" s="10">
         <v>92.9</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="10">
         <v>2.27</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E12" s="10">
         <v>4.83</v>
       </c>
-      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="11">
+      <c r="C13" s="11">
         <v>60.64</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="11">
         <v>12.63</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>26.73</v>
       </c>
-      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="11">
+      <c r="C14" s="11">
         <v>43.23</v>
       </c>
-      <c r="C14" s="10">
+      <c r="D14" s="10">
         <v>16.41</v>
       </c>
-      <c r="D14" s="10">
+      <c r="E14" s="10">
         <v>40.36</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="10">
+      <c r="C15" s="10">
         <v>42.38</v>
       </c>
-      <c r="C15" s="10">
+      <c r="D15" s="10">
         <v>15.89</v>
       </c>
-      <c r="D15" s="10">
+      <c r="E15" s="10">
         <v>41.74</v>
       </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="10">
+      <c r="C16" s="10">
         <v>30.01</v>
       </c>
-      <c r="C16" s="10">
+      <c r="D16" s="10">
         <v>12.85</v>
       </c>
-      <c r="D16" s="10">
+      <c r="E16" s="10">
         <v>57.13</v>
       </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1004,9 +1027,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1014,9 +1037,9 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1024,9 +1047,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1034,9 +1057,9 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1044,9 +1067,9 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1054,9 +1077,9 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1064,18 +1087,19 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ErrorAnalysisResults.xlsx
+++ b/ErrorAnalysisResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\NLP Project\Repository\squad-nlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16187BA-F563-473A-9D66-8B9E1B54C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E6BA23-44C7-444C-A861-945ABE3961B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -29,21 +29,6 @@
   </si>
   <si>
     <t>Exact Answer</t>
-  </si>
-  <si>
-    <t>Glove Baseline Answer</t>
-  </si>
-  <si>
-    <t>Glove + Features Answer</t>
-  </si>
-  <si>
-    <t>Glove + Attention Answer</t>
-  </si>
-  <si>
-    <t>Glove + Char + Attention Answer</t>
-  </si>
-  <si>
-    <t>Bert Answer</t>
   </si>
   <si>
     <t>What did Irvin Rock write about?</t>
@@ -186,9 +171,6 @@
     <t>educational establishments,</t>
   </si>
   <si>
-    <t>Modello</t>
-  </si>
-  <si>
     <t>Error Ans (%)</t>
   </si>
   <si>
@@ -211,13 +193,34 @@
   </si>
   <si>
     <t>Bert</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>GloVe Baseline Answer</t>
+  </si>
+  <si>
+    <t>GloVe + Features Answer</t>
+  </si>
+  <si>
+    <t>GloVe + Attention Answer</t>
+  </si>
+  <si>
+    <t>GloVe + Char + Attention Answer</t>
+  </si>
+  <si>
+    <t>BERT Answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +244,50 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -374,9 +421,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,15 +440,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,124 +701,130 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="9" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="30" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="242.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="242.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="117.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="117.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3">
         <v>6.3E-2</v>
@@ -758,112 +839,112 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="105.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="218.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="218.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="2">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16">
         <v>1680</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>1680</v>
@@ -878,216 +959,216 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="218.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="218.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="C12" s="9">
+        <v>92.9</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.27</v>
+      </c>
+      <c r="E12" s="21">
+        <v>4.83</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="C13" s="10">
+        <v>60.64</v>
+      </c>
+      <c r="D13" s="10">
+        <v>12.63</v>
+      </c>
+      <c r="E13" s="22">
+        <v>26.73</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C14" s="10">
+        <v>43.23</v>
+      </c>
+      <c r="D14" s="9">
+        <v>16.41</v>
+      </c>
+      <c r="E14" s="21">
+        <v>40.36</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C15" s="9">
+        <v>42.38</v>
+      </c>
+      <c r="D15" s="9">
+        <v>15.89</v>
+      </c>
+      <c r="E15" s="21">
+        <v>41.74</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="10">
-        <v>92.9</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2.27</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4.83</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="11">
-        <v>60.64</v>
-      </c>
-      <c r="D13" s="11">
-        <v>12.63</v>
-      </c>
-      <c r="E13" s="11">
-        <v>26.73</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11">
-        <v>43.23</v>
-      </c>
-      <c r="D14" s="10">
-        <v>16.41</v>
-      </c>
-      <c r="E14" s="10">
-        <v>40.36</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10">
-        <v>42.38</v>
-      </c>
-      <c r="D15" s="10">
-        <v>15.89</v>
-      </c>
-      <c r="E15" s="10">
-        <v>41.74</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>30.01</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>12.85</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="21">
         <v>57.13</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1102,5 +1183,6 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>